--- a/biology/Zoologie/Elginerpeton/Elginerpeton.xlsx
+++ b/biology/Zoologie/Elginerpeton/Elginerpeton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elginerpeton pancheni
 Elginerpeton est un genre fossile de stégocéphales ayant vécu durant le Dévonien supérieur (Frasnien), il y a environ 375 millions d'années, dans ce qui est aujourd'hui le nord de l'Écosse. Une seule espèce est connue, Elginerpeton pancheni, décrite par le paléontologue suédois Per Erik Ahlberg en 1995. Il s'agit d'un des plus vieux poissons à membres connus à ce jour.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premiers fossiles d'Elginerpeton pancheni ont été découverts à Scat Craig, dans le Morayshire, en Écosse (Royaume-Uni), dans des roches datant du Dévonien supérieur (stade du Frasnien supérieur, vers 375 millions d'années). Les paléontologues ont collecté des os fragmentaires comprenant une épaule et une hanche partielles, un fémur, un tibia et des fragments de mandibule. L'holotype est un fragment de mandibule estimé à 40 cm de longueur totale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premiers fossiles d'Elginerpeton pancheni ont été découverts à Scat Craig, dans le Morayshire, en Écosse (Royaume-Uni), dans des roches datant du Dévonien supérieur (stade du Frasnien supérieur, vers 375 millions d'années). Les paléontologues ont collecté des os fragmentaires comprenant une épaule et une hanche partielles, un fémur, un tibia et des fragments de mandibule. L'holotype est un fragment de mandibule estimé à 40 cm de longueur totale.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille estimée de l'animal est d'environ 1,5 mètre. Une analyse biomécanique des mâchoires de divers stégocéphales indique qu'Elginerpeton aurait eu une morphologie inhabituelle chez les tétrapodomorphes. Ses mâchoires sont minces et décrites comme les plus sensibles aux fortes contraintes parmi les membres du groupe. Cependant, la morphologie de l'os peut avoir réduit ces contraintes. Elginerpeton a pourtant une force de morsure élevée, troisième au classement général après Crassigyrinus (en deuxième) et Megalocephalus (en) (en premier). Ces deux caractéristiques combinées indiquent que la mâchoire serait mieux adaptée aux morsures rapides et fortes envers des proies petites mais rapides[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille estimée de l'animal est d'environ 1,5 mètre. Une analyse biomécanique des mâchoires de divers stégocéphales indique qu'Elginerpeton aurait eu une morphologie inhabituelle chez les tétrapodomorphes. Ses mâchoires sont minces et décrites comme les plus sensibles aux fortes contraintes parmi les membres du groupe. Cependant, la morphologie de l'os peut avoir réduit ces contraintes. Elginerpeton a pourtant une force de morsure élevée, troisième au classement général après Crassigyrinus (en deuxième) et Megalocephalus (en) (en premier). Ces deux caractéristiques combinées indiquent que la mâchoire serait mieux adaptée aux morsures rapides et fortes envers des proies petites mais rapides.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au moment de sa découverte, Per Erik Ahlberg classe Elginerpeton dans la famille des Elginerpetontidae (en), aux cotés du genre apparenté Obruchevichthys[1]. Figurant parmi les stégocéphales connus les plus basaux, il est mentionné dans plusieurs analyses phylogénétiques sur les tétrapodomorphes[3],[4].
-Ci-dessous un cladogramme publié par Brian Swartz en 2012[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au moment de sa découverte, Per Erik Ahlberg classe Elginerpeton dans la famille des Elginerpetontidae (en), aux cotés du genre apparenté Obruchevichthys. Figurant parmi les stégocéphales connus les plus basaux, il est mentionné dans plusieurs analyses phylogénétiques sur les tétrapodomorphes,.
+Ci-dessous un cladogramme publié par Brian Swartz en 2012 :
 </t>
         </is>
       </c>
